--- a/ecuacion-tool-code-generator-batch/excel-format/DB項目定義書(fmt-v4.9.1)_sample-shisetsu-tenken.xlsx
+++ b/ecuacion-tool-code-generator-batch/excel-format/DB項目定義書(fmt-v4.9.1)_sample-shisetsu-tenken.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28426A5B-DC3D-EB48-BEB3-5EE29C50216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A8E8D-CEA3-D440-A98A-C386610E2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="853" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="594">
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
@@ -4537,18 +4537,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>group admin</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>system admin</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>システム管理者</t>
     <rPh sb="4" eb="7">
       <t xml:space="preserve">カンリシャ </t>
@@ -4630,12 +4618,6 @@
       <t xml:space="preserve">ムコウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>except the following symbols: $%&amp;()=^~,&lt;&gt;/?</t>
-  </si>
-  <si>
-    <t>alphanumeric characters and the following symbols: _@+-</t>
   </si>
   <si>
     <t>禁則文字パターン説明（デフォルト言語）</t>
@@ -4732,6 +4714,349 @@
   </si>
   <si>
     <t>jichitai</t>
+  </si>
+  <si>
+    <t>DAI_KOUMOKU</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>大項目名</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DT_TENKEN_NAME</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>DT_YEAR</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>DT_ACC_NAME</t>
+  </si>
+  <si>
+    <t>実施ステータス</t>
+  </si>
+  <si>
+    <t>EXECUTION_YEAR</t>
+  </si>
+  <si>
+    <t>EXECUTION_STATUS</t>
+  </si>
+  <si>
+    <t>DT_EXECUTION_STATUS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>PREPARING</t>
+  </si>
+  <si>
+    <t>準備中</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>TENKEN_IN_PROGRESS</t>
+  </si>
+  <si>
+    <t>点検実施中</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>報告完了</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>点検実施中でも、中項目の追加、文言変更などは可能。削除は既に使用済み点検結果があればエラー。
+準備中にステータスを戻す機能は想定なし</t>
+  </si>
+  <si>
+    <t>本ステータスでは点検実施はできない</t>
+  </si>
+  <si>
+    <t>本ステータスでは点検実施はできない。画面からステータスを点検実施中に戻すことは可能</t>
+  </si>
+  <si>
+    <t>JICHITAI_YEAR</t>
+  </si>
+  <si>
+    <t>SHISETSU</t>
+  </si>
+  <si>
+    <t>自治体年度ID</t>
+  </si>
+  <si>
+    <t>JICHITAI_YEAR_ID</t>
+  </si>
+  <si>
+    <t>jichitaiYear</t>
+  </si>
+  <si>
+    <t>施設名</t>
+  </si>
+  <si>
+    <t>実施中</t>
+  </si>
+  <si>
+    <t>IS_IN_PROGRESS</t>
+  </si>
+  <si>
+    <t>一自治体ごとに常に1行のみtrue（ゼロ行はあり得ない）</t>
+  </si>
+  <si>
+    <t>大項目番号１</t>
+  </si>
+  <si>
+    <t>大項目番号２</t>
+  </si>
+  <si>
+    <t>NUMBER_1</t>
+  </si>
+  <si>
+    <t>NUMBER_2</t>
+  </si>
+  <si>
+    <t>CHU_KOUMOKU</t>
+  </si>
+  <si>
+    <t>大項目ID</t>
+  </si>
+  <si>
+    <t>daiKoumoku</t>
+  </si>
+  <si>
+    <t>中項目名</t>
+  </si>
+  <si>
+    <t>中項目ID</t>
+  </si>
+  <si>
+    <t>chuKoumoku</t>
+  </si>
+  <si>
+    <t>不具合概要</t>
+  </si>
+  <si>
+    <t>DAI_KOUMOKU_ID</t>
+  </si>
+  <si>
+    <t>CHU_KOUMOKU_ID</t>
+  </si>
+  <si>
+    <t>TENKEN_KEKKA</t>
+  </si>
+  <si>
+    <t>SHISETSU_ID</t>
+  </si>
+  <si>
+    <t>施設ID</t>
+  </si>
+  <si>
+    <t>shisetsu</t>
+  </si>
+  <si>
+    <t>不具合概要ID</t>
+  </si>
+  <si>
+    <t>FUGUAI_ID</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>不具合詳細</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
+  </si>
+  <si>
+    <t>DT_DESC</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>点検者はメールアドレスなしの場合あり</t>
+  </si>
+  <si>
+    <t>点検完了日</t>
+  </si>
+  <si>
+    <t>TENKEN_KANRYO_DATE</t>
+  </si>
+  <si>
+    <t>DT_DATE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>写真ファイルID</t>
+  </si>
+  <si>
+    <t>PICTURE_FILE_ID</t>
+  </si>
+  <si>
+    <t>点検者ID</t>
+  </si>
+  <si>
+    <t>TENKEN_ACC_ID</t>
+  </si>
+  <si>
+    <t>延床面積</t>
+  </si>
+  <si>
+    <t>FLOOR_SQUARE_SIZE</t>
+  </si>
+  <si>
+    <t>DT_DECIMAL</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>^[0-9\\.]$</t>
+  </si>
+  <si>
+    <t>半角数値とドット</t>
+  </si>
+  <si>
+    <t>点検結果備考</t>
+  </si>
+  <si>
+    <t>TENKEN_KEKKA_BIKOU</t>
+  </si>
+  <si>
+    <t>報告エクセルの「点数結果集計エクセル」右上の備考に記載</t>
+  </si>
+  <si>
+    <t>施設登録時には設定されないため</t>
+  </si>
+  <si>
+    <t>外・内</t>
+  </si>
+  <si>
+    <t>SOTO_UCHI</t>
+  </si>
+  <si>
+    <t>DT_SOTO_UCHI</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>UCHI</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>中項目あり</t>
+  </si>
+  <si>
+    <t>HAS_CHU_KOUMOKU</t>
+  </si>
+  <si>
+    <t>FUGUAI_GAIYOU</t>
+  </si>
+  <si>
+    <t>大項目ステータス</t>
+  </si>
+  <si>
+    <t>DAI_KOUMOKU_STATUS</t>
+  </si>
+  <si>
+    <t>DT_DAI_KOUMOKU_STATUS</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>不明</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>報告：写真ファイルID</t>
+  </si>
+  <si>
+    <t>REPORT_PICTURE_FILE_ID</t>
+  </si>
+  <si>
+    <t>報告：その場での対策：済み</t>
+  </si>
+  <si>
+    <t>REPORT_TAISAKU_SUMI</t>
+  </si>
+  <si>
+    <t>報告：その場での対策：不可</t>
+  </si>
+  <si>
+    <t>REPORT_TAISAKU_FUKA</t>
+  </si>
+  <si>
+    <t>報告：メモ</t>
+  </si>
+  <si>
+    <t>REPORT_MEMO</t>
+  </si>
+  <si>
+    <t>fuguaiGaiyou</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NOT_STARTED</t>
+  </si>
+  <si>
+    <t>未記入</t>
+  </si>
+  <si>
+    <t>dataType</t>
   </si>
 </sst>
 </file>
@@ -5015,7 +5340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -5247,6 +5572,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5254,7 +5597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5600,11 +5943,32 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6855,7 +7219,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="テーブル2" displayName="テーブル2" ref="A8:S16" tableType="xml" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="テーブル2" displayName="テーブル2" ref="A8:S24" tableType="xml" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="name" name="DataType名" dataDxfId="94">
       <xmlColumnPr mapId="191" xpath="/root/datatype/@name" xmlDataType="string"/>
@@ -6909,8 +7273,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="テーブル4" displayName="テーブル4" ref="A7:I10" tableType="xml" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A7:I10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="テーブル4" displayName="テーブル4" ref="A7:I19" tableType="xml" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+  <autoFilter ref="A7:I19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" uniqueName="dataTypeName" name="DataType名" dataDxfId="73">
       <xmlColumnPr mapId="132" xpath="/root/enum/dataTypeName" xmlDataType="string"/>
@@ -6970,8 +7334,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="テーブル7" displayName="テーブル7" ref="A5:AB20" tableType="xml" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A5:AB20" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="テーブル7" displayName="テーブル7" ref="A5:AB62" tableType="xml" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A5:AB62" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" uniqueName="table" name="テーブル名" dataDxfId="56">
       <xmlColumnPr mapId="161" xpath="/root/column/table" xmlDataType="string"/>
@@ -7910,7 +8274,7 @@
         <v>353</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D10" s="83"/>
     </row>
@@ -7975,10 +8339,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -8063,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>4</v>
+        <v>593</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>281</v>
@@ -8190,13 +8554,13 @@
         <v>417</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E7" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -8234,7 +8598,7 @@
         <v>417</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C8" s="67" t="s">
         <v>298</v>
@@ -8276,10 +8640,10 @@
         <v>417</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>425</v>
@@ -8318,10 +8682,10 @@
         <v>417</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>206</v>
@@ -8357,7 +8721,7 @@
     </row>
     <row r="11" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B11" s="101" t="s">
         <v>297</v>
@@ -8405,10 +8769,10 @@
     </row>
     <row r="12" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>298</v>
@@ -8449,25 +8813,29 @@
     </row>
     <row r="13" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E13" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="62"/>
+      <c r="G13" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="62"/>
       <c r="L13" s="9"/>
@@ -8479,7 +8847,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="10"/>
+      <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -8491,13 +8859,13 @@
     </row>
     <row r="14" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>297</v>
+        <v>509</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>297</v>
+        <v>475</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>210</v>
@@ -8507,23 +8875,31 @@
         <v>○</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="9" t="s">
-        <v>211</v>
+      <c r="G14" s="62" t="s">
+        <v>383</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="62"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="R14" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="S14" s="96" t="s">
+        <v>297</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -8535,25 +8911,27 @@
       <c r="AB14" s="62"/>
       <c r="AD14" s="66"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>483</v>
+        <v>509</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>210</v>
+        <v>488</v>
       </c>
       <c r="E15" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="62" t="s">
+        <v>383</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -8561,50 +8939,41 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="R15" s="96" t="s">
-        <v>479</v>
-      </c>
-      <c r="S15" s="96" t="s">
-        <v>297</v>
-      </c>
-      <c r="T15" s="96"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="67"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="62"/>
+      <c r="AD15" s="66"/>
+    </row>
+    <row r="16" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>440</v>
+        <v>509</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="E16" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
-        <v>449</v>
-      </c>
+      <c r="G16" s="62"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -8622,30 +8991,33 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="40"/>
+      <c r="Y16" s="40" t="s">
+        <v>517</v>
+      </c>
       <c r="Z16" s="67"/>
       <c r="AA16" s="67"/>
       <c r="AB16" s="62"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>298</v>
+      <c r="AD16" s="66"/>
+    </row>
+    <row r="17" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="E17" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -8667,28 +9039,33 @@
       <c r="Z17" s="67"/>
       <c r="AA17" s="67"/>
       <c r="AB17" s="62"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>444</v>
+      <c r="AD17" s="66"/>
+    </row>
+    <row r="18" spans="1:30" s="65" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>428</v>
+        <v>210</v>
       </c>
       <c r="E18" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="62"/>
+      <c r="G18" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="62"/>
       <c r="L18" s="9"/>
@@ -8708,26 +9085,27 @@
       <c r="Z18" s="67"/>
       <c r="AA18" s="67"/>
       <c r="AB18" s="62"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>441</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>425</v>
+      <c r="AD18" s="66"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="E19" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="62"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -8735,41 +9113,53 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="R19" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="S19" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T19" s="96"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="62"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>442</v>
+    </row>
+    <row r="20" spans="1:30" ht="16">
+      <c r="A20" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>436</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
       <c r="E20" s="68" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
         <v>○</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="62"/>
@@ -8786,50 +9176,1921 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="40"/>
+      <c r="Y20" s="40" t="s">
+        <v>543</v>
+      </c>
       <c r="Z20" s="67"/>
       <c r="AA20" s="67"/>
       <c r="AB20" s="62"/>
     </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="62"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="62"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="62"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="62"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="62"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="121" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F26" s="120"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="62"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="R27" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="S27" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="62"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E28" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="62"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E29" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="62"/>
+    </row>
+    <row r="30" spans="1:30" ht="16">
+      <c r="A30" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="62"/>
+    </row>
+    <row r="31" spans="1:30" ht="16">
+      <c r="A31" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E31" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="62"/>
+    </row>
+    <row r="32" spans="1:30" ht="32">
+      <c r="A32" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E32" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="62"/>
+    </row>
+    <row r="33" spans="1:28" ht="16">
+      <c r="A33" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="62"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="62"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="121" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F35" s="120"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="62"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E36" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="R36" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="S36" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T36" s="62"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="62"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E37" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="62"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E39" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="62"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="62"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="62"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E42" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="62"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H43" s="62"/>
+      <c r="I43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="62"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="121" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="122"/>
+      <c r="W44" s="122"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="62"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="R45" s="96" t="s">
+        <v>480</v>
+      </c>
+      <c r="S45" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T45" s="62"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="62"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E46" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="62"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H47" s="62"/>
+      <c r="I47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="62"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="121" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F48" s="120"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="122"/>
+      <c r="V48" s="122"/>
+      <c r="W48" s="122"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="62"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="R49" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="S49" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T49" s="62"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="62"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E50" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="62"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" s="62"/>
+      <c r="I51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="62"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="121" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F52" s="120"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="R52" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="S52" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="T52" s="62"/>
+      <c r="U52" s="122"/>
+      <c r="V52" s="122"/>
+      <c r="W52" s="122"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="62"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="R53" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="S53" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="T53" s="62"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="62"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="R54" s="96" t="s">
+        <v>480</v>
+      </c>
+      <c r="S54" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T54" s="62"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="62"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="R55" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="S55" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T55" s="62"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="62"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="R56" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="S56" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="T56" s="62"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="62"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="E57" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="62"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>540</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="E58" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="62"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="62"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E59" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="62"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="62"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="62"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B60" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="62"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="62"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="62"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>586</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="62"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="62"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>587</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="E62" s="68" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
+        <v>○</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="62"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="76"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="62"/>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A1:B1 D1:Y1 D2:X4 Y4 A5:H5 A21:Y1048576" name="修正可能箇所"/>
+    <protectedRange sqref="A1:B1 D1:Y1 D2:X4 Y4 A5:H5 E34:H35 B27 T36:Y39 B43 E40:Y42 T45:Y45 E45:G46 A46:C46 H45:N45 H46:Y46 B47 E49:N49 B50:C50 B51 E50:Y50 J34:Y35 J43:Y44 E51:H52 J47:N48 J51:N52 C53 B57:Y57 B54:C56 E53:N56 T51:Y56 B58:G58 G25:G33 A34:B34 E36:N39 A40:C42 E59:G59 A63:Y1048576 A36:B39 A35 A45:B45 A43:A44 B49 E43:H44 E47:H48 T47:Y49 A47:A59 A60:G62 I58:Y62" name="修正可能箇所"/>
     <protectedRange sqref="Y5" name="修正可能箇所_6"/>
-    <protectedRange sqref="D19:D20 C16:D16 A17:A20" name="修正可能箇所_3_1_1"/>
-    <protectedRange sqref="A11:A16" name="修正可能箇所_1_1_2_1"/>
+    <protectedRange sqref="D23:D24 C20:D20 A21:A33" name="修正可能箇所_3_1_1"/>
+    <protectedRange sqref="A11:A20" name="修正可能箇所_1_1_2_1"/>
     <protectedRange sqref="C7:D7 D9" name="修正可能箇所_3_2_2"/>
-    <protectedRange sqref="F6:F20" name="修正可能箇所_3_1_1_2_3"/>
-    <protectedRange sqref="B18:B20" name="修正可能箇所_1_2_5"/>
-    <protectedRange sqref="Y14:Y20 Y11:Y12" name="修正可能箇所_6_1_5"/>
-    <protectedRange sqref="M14:M17 M12 U14:U20 H16:I20 U11:U12" name="修正可能箇所_3_1_1_5"/>
-    <protectedRange sqref="M11 H14:I15 H11:I12" name="修正可能箇所_3_1_1_1_3"/>
-    <protectedRange sqref="V7:Y9 G7:T9 G12" name="修正可能箇所_4_1_2"/>
+    <protectedRange sqref="F6:F33" name="修正可能箇所_3_1_1_2_3"/>
+    <protectedRange sqref="B22:B25 B28:B33 B59" name="修正可能箇所_1_2_5"/>
+    <protectedRange sqref="Y11:Y33" name="修正可能箇所_6_1_5"/>
+    <protectedRange sqref="H21:I24 M12:M21 H25:H26 H27:I29 I20 I30:I33 U11:U33" name="修正可能箇所_3_1_1_5"/>
+    <protectedRange sqref="M11 H11:I19 I25:I26 I34:I35 I43:I44 I47:I48 H20 H30:H33 I51:I52 H58:H62" name="修正可能箇所_3_1_1_1_3"/>
+    <protectedRange sqref="V7:Y9 G7:T9 G12 G14:G17" name="修正可能箇所_4_1_2"/>
     <protectedRange sqref="B7:B9" name="修正可能箇所_1_2_1_1_2"/>
     <protectedRange sqref="Y6" name="修正可能箇所_6_1_1_1_2"/>
     <protectedRange sqref="M6 H6:I6 U6:U9" name="修正可能箇所_3_1_1_2_1_3"/>
     <protectedRange sqref="B10" name="修正可能箇所_1_2_2_1_2"/>
     <protectedRange sqref="Y10" name="修正可能箇所_6_1_2_1_2"/>
     <protectedRange sqref="U10 H10:I10" name="修正可能箇所_3_1_1_3_1_2"/>
-    <protectedRange sqref="B13" name="修正可能箇所_1_2_4_2"/>
-    <protectedRange sqref="Y13" name="修正可能箇所_6_1_4_2"/>
-    <protectedRange sqref="U13 H13:I13" name="修正可能箇所_3_1_1_6_2"/>
   </protectedRanges>
   <phoneticPr fontId="4"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:M20 U6:U20 F6:F20" xr:uid="{D1765308-54EE-6144-9C78-89C6C328DBD3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O49 O52:O56 O6:O46" xr:uid="{048F55BE-4F1E-D34C-ADB1-AA691C7E7A65}">
+      <formula1>"@ManyToOne,@OneToOne"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P49 P52:P56 P6:P46" xr:uid="{DA7FAC49-EAAD-B846-B32D-F56068FEC860}">
+      <formula1>"unidirectional,bidirectional"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 U6:U62 H6:M62" xr:uid="{D1765308-54EE-6144-9C78-89C6C328DBD3}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G20" xr:uid="{6BEEDFFE-8171-EB45-AD6A-9316F80A9B61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G62" xr:uid="{6BEEDFFE-8171-EB45-AD6A-9316F80A9B61}">
       <formula1>"S,U"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N20" xr:uid="{9E500CAA-5CD9-6544-904E-B2A50A6FE093}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N62" xr:uid="{9E500CAA-5CD9-6544-904E-B2A50A6FE093}">
       <formula1>"CB,CD,LB,LD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O20" xr:uid="{048F55BE-4F1E-D34C-ADB1-AA691C7E7A65}">
-      <formula1>"@ManyToOne,@OneToOne"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P20" xr:uid="{DA7FAC49-EAAD-B846-B32D-F56068FEC860}">
-      <formula1>"unidirectional,bidirectional"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8848,7 +11109,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9274,7 +11535,7 @@
         <v>185</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>205</v>
@@ -10442,7 +12703,7 @@
         <v>414</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>335</v>
@@ -10453,13 +12714,13 @@
         <v>45809</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -10534,7 +12795,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -10596,7 +12857,7 @@
         <v>303</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F7" s="83"/>
     </row>
@@ -10614,7 +12875,7 @@
         <v>263</v>
       </c>
       <c r="E8" s="83" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F8" s="83"/>
     </row>
@@ -10632,7 +12893,7 @@
         <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F9" s="83"/>
     </row>
@@ -10777,7 +13038,7 @@
         <v>261</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D18" s="83" t="s">
         <v>122</v>
@@ -10795,13 +13056,13 @@
         <v>261</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F19" s="83"/>
     </row>
@@ -10813,10 +13074,10 @@
         <v>261</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="83"/>
@@ -10829,10 +13090,10 @@
         <v>261</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
@@ -10845,10 +13106,10 @@
         <v>261</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E22" s="83"/>
       <c r="F22" s="83"/>
@@ -10867,7 +13128,7 @@
         <v>326</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F23" s="85"/>
     </row>
@@ -10975,7 +13236,7 @@
         <v>363</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F29" s="83"/>
     </row>
@@ -11094,11 +13355,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11176,24 +13437,24 @@
       <c r="B6" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="115" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
       <c r="Q6" s="53" t="s">
         <v>166</v>
       </c>
@@ -11431,7 +13692,7 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19" ht="64">
+    <row r="13" spans="1:19" ht="48">
       <c r="A13" s="103" t="s">
         <v>420</v>
       </c>
@@ -11458,11 +13719,9 @@
         <v>429</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="J13" s="38" t="s">
         <v>433</v>
       </c>
+      <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="2"/>
@@ -11473,7 +13732,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19" ht="48">
+    <row r="14" spans="1:19" ht="32">
       <c r="A14" s="6" t="s">
         <v>423</v>
       </c>
@@ -11498,11 +13757,9 @@
         <v>430</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="J14" s="38" t="s">
         <v>432</v>
       </c>
+      <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="2"/>
@@ -11579,6 +13836,262 @@
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
     </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v>REG_EX_ALL</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v>REG_EX_ALL</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" ht="32">
+      <c r="A22" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v>REG_EX_ALL</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="str">
+        <f>IF(テーブル2[[#This Row],[データパターン（日本語）]]="", "", VLOOKUP(テーブル2[[#This Row],[データパターン（日本語）]],dataType・データパターン一覧!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
@@ -11589,24 +14102,30 @@
     <mergeCell ref="C6:L6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:L1 F1048292:L1048576 F4:H5 I5:L5 H14" xr:uid="{3144E7DE-4D77-4C07-AF5A-BC6095CFCA93}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:L1 F1048292:L1048576 F4:H5 I5:L5 H14" xr:uid="{982B2253-568C-8A43-867B-F5F8293B5E29}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H3 I2:L2" xr:uid="{1FD8C5AB-EB5E-4F2C-8872-369731C36DF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H3 I2:L2" xr:uid="{9D11DDAD-FF9C-274B-B54E-9FA6DC052CD3}">
       <formula1>INDIRECT($C6)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:L1048277" xr:uid="{C97D471F-6202-4E38-917A-75ED14AE005E}">
-      <formula1>INDIRECT($C20)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048278:L1048291" xr:uid="{6400312D-0E00-4D04-9793-D9D2B04F8B7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048278:L1048291" xr:uid="{DFA41321-5A00-B041-A79F-F2FE50A86B90}">
       <formula1>INDIRECT($C1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R16" xr:uid="{B7E8EAEC-F2A7-4AF9-B482-D98177AAE053}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:L17" xr:uid="{061211BE-6BAF-E244-A15D-BBFF5CD2B596}">
+      <formula1>INDIRECT(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:L19 G21:L1048277 F20:F1048277" xr:uid="{D7C95B5D-BDE4-2747-98EB-5CBAC068C089}">
+      <formula1>INDIRECT($C21)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R24" xr:uid="{572029A8-C554-6B4C-8CFA-C927E81FA20C}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E16" xr:uid="{9907F244-A402-B24C-B3A3-75C61902FAF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E24" xr:uid="{D8C3667B-C24B-3547-A11D-E3D5A607CCEB}">
       <formula1>一般</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20:L20" xr:uid="{93A8209E-5912-2D4C-B024-8AC1FAD02519}">
+      <formula1>INDIRECT($C22)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11618,11 +14137,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB9D3F0F-B96D-AF41-821D-56373DE0AA62}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCD24967-149E-8646-A0B1-CB0C1474A608}">
           <x14:formula1>
             <xm:f>dataTypeプルダウン項目!$E$3:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B16</xm:sqref>
+          <xm:sqref>B8:B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11632,10 +14151,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11739,12 +14258,10 @@
       <c r="D8" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>477</v>
-      </c>
+      <c r="E8" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
@@ -11755,14 +14272,12 @@
         <v>409</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>478</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
@@ -11773,14 +14288,189 @@
         <v>408</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>438</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="116"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="48">
+      <c r="A12" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>506</v>
+      </c>
+      <c r="G12" s="116"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="32">
+      <c r="A13" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="116"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="F16" s="115"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -11789,7 +14479,7 @@
   </protectedRanges>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10" xr:uid="{5B1AC1DA-0106-0047-9C3B-23CE81F02882}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B19" xr:uid="{5B1AC1DA-0106-0047-9C3B-23CE81F02882}">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
